--- a/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:25:04+00:00</t>
+    <t>2024-02-07T09:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
+++ b/203-ajout-cas-usage-saisie-offre/ig/StructureDefinition-ror-practitionerrole.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$79</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -54,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:30:33+00:00</t>
+    <t>2024-02-21T11:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -914,7 +917,7 @@
     <t>PractitionerRole.practitioner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner)
+    <t xml:space="preserve">Reference(Practitioner|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner)
 </t>
   </si>
   <si>
@@ -937,7 +940,7 @@
     <t>PractitionerRole.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrOrganization|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization)
 </t>
   </si>
   <si>
@@ -1124,7 +1127,7 @@
     <t>PractitionerRole.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location)
 </t>
   </si>
   <si>
@@ -1146,7 +1149,7 @@
     <t>PractitionerRole.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(HealthcareService)
+    <t xml:space="preserve">Reference(HealthcareService|https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-healthcareservice)
 </t>
   </si>
   <si>
@@ -1710,6 +1713,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1903,7 +1921,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="112.875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="138.9140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2056,7 +2074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
@@ -2168,7 +2186,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>86</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>94</v>
       </c>
@@ -2394,7 +2412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>102</v>
       </c>
@@ -2506,7 +2524,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>108</v>
       </c>
@@ -2620,7 +2638,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -2734,7 +2752,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2753,7 +2771,7 @@
         <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>76</v>
@@ -2848,7 +2866,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>130</v>
       </c>
@@ -2962,7 +2980,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>136</v>
       </c>
@@ -3076,7 +3094,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>142</v>
       </c>
@@ -3190,7 +3208,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -3304,7 +3322,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>162</v>
       </c>
@@ -3325,7 +3343,7 @@
         <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>76</v>
@@ -3418,7 +3436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>166</v>
       </c>
@@ -3532,7 +3550,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>171</v>
       </c>
@@ -3646,7 +3664,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>180</v>
       </c>
@@ -3760,7 +3778,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>188</v>
       </c>
@@ -3874,7 +3892,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>195</v>
       </c>
@@ -3986,7 +4004,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>200</v>
       </c>
@@ -4007,7 +4025,7 @@
         <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>76</v>
@@ -4100,7 +4118,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>205</v>
       </c>
@@ -4121,7 +4139,7 @@
         <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>76</v>
@@ -4214,7 +4232,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>210</v>
       </c>
@@ -4235,7 +4253,7 @@
         <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>76</v>
@@ -4328,7 +4346,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>215</v>
       </c>
@@ -4440,7 +4458,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>217</v>
       </c>
@@ -4552,7 +4570,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>219</v>
       </c>
@@ -4666,7 +4684,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>226</v>
       </c>
@@ -4778,7 +4796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>234</v>
       </c>
@@ -4799,7 +4817,7 @@
         <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>76</v>
@@ -4892,7 +4910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>238</v>
       </c>
@@ -4913,7 +4931,7 @@
         <v>87</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>76</v>
@@ -5006,7 +5024,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>242</v>
       </c>
@@ -5027,7 +5045,7 @@
         <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>76</v>
@@ -5120,7 +5138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>247</v>
       </c>
@@ -5141,7 +5159,7 @@
         <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>76</v>
@@ -5234,7 +5252,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>252</v>
       </c>
@@ -5350,7 +5368,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>257</v>
       </c>
@@ -5369,7 +5387,7 @@
         <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>76</v>
@@ -5464,7 +5482,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>266</v>
       </c>
@@ -5582,7 +5600,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>276</v>
       </c>
@@ -5698,7 +5716,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>287</v>
       </c>
@@ -5717,7 +5735,7 @@
         <v>87</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>76</v>
@@ -5812,7 +5830,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>294</v>
       </c>
@@ -5926,7 +5944,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>299</v>
       </c>
@@ -5945,7 +5963,7 @@
         <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>76</v>
@@ -6040,7 +6058,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>307</v>
       </c>
@@ -6059,7 +6077,7 @@
         <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>76</v>
@@ -6152,7 +6170,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>316</v>
       </c>
@@ -6173,7 +6191,7 @@
         <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>76</v>
@@ -6266,7 +6284,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>320</v>
       </c>
@@ -6287,7 +6305,7 @@
         <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>76</v>
@@ -6380,7 +6398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>324</v>
       </c>
@@ -6401,7 +6419,7 @@
         <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>76</v>
@@ -6494,7 +6512,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
         <v>328</v>
       </c>
@@ -6515,7 +6533,7 @@
         <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>76</v>
@@ -6608,7 +6626,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>332</v>
       </c>
@@ -6629,7 +6647,7 @@
         <v>87</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>76</v>
@@ -6722,7 +6740,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
         <v>336</v>
       </c>
@@ -6743,7 +6761,7 @@
         <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>76</v>
@@ -6836,7 +6854,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
         <v>340</v>
       </c>
@@ -6857,7 +6875,7 @@
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>76</v>
@@ -6950,7 +6968,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>344</v>
       </c>
@@ -6971,7 +6989,7 @@
         <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>76</v>
@@ -7064,7 +7082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
         <v>348</v>
       </c>
@@ -7085,7 +7103,7 @@
         <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>76</v>
@@ -7178,7 +7196,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
         <v>352</v>
       </c>
@@ -7199,7 +7217,7 @@
         <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>76</v>
@@ -7292,7 +7310,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
         <v>356</v>
       </c>
@@ -7406,7 +7424,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>363</v>
       </c>
@@ -7425,7 +7443,7 @@
         <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>76</v>
@@ -7520,7 +7538,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
         <v>369</v>
       </c>
@@ -7539,7 +7557,7 @@
         <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>76</v>
@@ -7634,7 +7652,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
         <v>378</v>
       </c>
@@ -7746,7 +7764,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>379</v>
       </c>
@@ -7858,7 +7876,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
         <v>380</v>
       </c>
@@ -7879,7 +7897,7 @@
         <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>76</v>
@@ -7972,7 +7990,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
         <v>385</v>
       </c>
@@ -7993,7 +8011,7 @@
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>76</v>
@@ -8086,7 +8104,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>390</v>
       </c>
@@ -8107,7 +8125,7 @@
         <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>76</v>
@@ -8200,7 +8218,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
         <v>395</v>
       </c>
@@ -8314,7 +8332,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
         <v>406</v>
       </c>
@@ -8333,7 +8351,7 @@
         <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>76</v>
@@ -8430,7 +8448,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>415</v>
       </c>
@@ -8546,7 +8564,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
         <v>426</v>
       </c>
@@ -8660,7 +8678,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>432</v>
       </c>
@@ -8774,7 +8792,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>438</v>
       </c>
@@ -8793,7 +8811,7 @@
         <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>76</v>
@@ -8888,7 +8906,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
         <v>444</v>
       </c>
@@ -9000,7 +9018,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
         <v>445</v>
       </c>
@@ -9114,7 +9132,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
         <v>446</v>
       </c>
@@ -9135,7 +9153,7 @@
         <v>87</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>76</v>
@@ -9228,7 +9246,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>451</v>
       </c>
@@ -9249,7 +9267,7 @@
         <v>87</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>76</v>
@@ -9342,7 +9360,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
         <v>456</v>
       </c>
@@ -9363,7 +9381,7 @@
         <v>87</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>76</v>
@@ -9456,7 +9474,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
         <v>461</v>
       </c>
@@ -9572,7 +9590,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>466</v>
       </c>
@@ -9686,7 +9704,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>471</v>
       </c>
@@ -9798,7 +9816,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
         <v>474</v>
       </c>
@@ -9817,7 +9835,7 @@
         <v>87</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>76</v>
@@ -9912,7 +9930,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
         <v>479</v>
       </c>
@@ -9931,7 +9949,7 @@
         <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>76</v>
@@ -10026,7 +10044,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
         <v>482</v>
       </c>
@@ -10138,7 +10156,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
         <v>485</v>
       </c>
@@ -10250,7 +10268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
         <v>486</v>
       </c>
@@ -10364,7 +10382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
         <v>487</v>
       </c>
@@ -10480,7 +10498,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
         <v>488</v>
       </c>
@@ -10594,7 +10612,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
         <v>491</v>
       </c>
@@ -10708,7 +10726,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
         <v>495</v>
       </c>
@@ -10822,7 +10840,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
         <v>498</v>
       </c>
@@ -10939,6 +10957,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AN79">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI78">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>